--- a/biology/Botanique/Daucus_montanus/Daucus_montanus.xlsx
+++ b/biology/Botanique/Daucus_montanus/Daucus_montanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carotte de montagne
 Daucus montanus, la Carotte de montagne, est une espèce de plantes à fleurs annuelle de la famille des Apiaceae et du genre Daucus, originaire d'Amérique.
@@ -512,14 +524,16 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est décrite en 1820 par Josef August Schultes à partir des travaux de Alexander von Humboldt &amp; Aimé Bonpland, dans Caroli a Linné ... Systema vegetabilium : secundum classes, ordines, genera, species. Cum characteribus, differentiis et synonymiis., vol. 6, Sumtibus J.G. Cottae, 1820 (lire en ligne), p. 482[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est décrite en 1820 par Josef August Schultes à partir des travaux de Alexander von Humboldt &amp; Aimé Bonpland, dans Caroli a Linné ... Systema vegetabilium : secundum classes, ordines, genera, species. Cum characteribus, differentiis et synonymiis., vol. 6, Sumtibus J.G. Cottae, 1820 (lire en ligne), p. 482.
 Daucus montanus a pour synonymes :
-Daucus australis Poepp. ex DC., 1830[1],[2]
-Daucus toriloides DC., 1830[1],[2]
-Torilis peruviana C. Presl ex DC., 1830[1],[2]
-Cette espèce se nomme en français « Carotte de montagne »[3].
+Daucus australis Poepp. ex DC., 1830,
+Daucus toriloides DC., 1830,
+Torilis peruviana C. Presl ex DC., 1830,
+Cette espèce se nomme en français « Carotte de montagne ».
 </t>
         </is>
       </c>
@@ -550,12 +564,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est une plante annuelle de 10 à 100 cm, les tiges érigées à décombantes, simples ou peu ramifiées, rétrohispides à glabrescentes. Les feuilles, de dimensions 3,5-12 × 2,5-5 cm, sont oblongues, les divisions terminales de 2-5 × c0,1 mm, linéaires, hispides ; les pétioles mesurent 3–12 cm[4].
-Appareil reproducteur
-Les pédoncules mesurent 4,5–5 cm, papillotés-hispides ; l'involucre des bractées nettement foliacées, est composé et penné, hispide ; les rayons de 4-20, l0,5-12 cm, sont vernis ; l'involucre de quelques bractées linéaires-hispides ; les pédicelles mesurent 3–20 mm. Les pétales sont blancs ou violacés. Les fruits, de dimensions 2-6 × 2-3 mm, sont oblongs, souvent violacés, la surface présentant des commissures avec deux rangées de poils hispides ; le carpophore (es) est entier[4].
-Confusions possibles
-Les populations de Daucus pusillus sont étroitement liées à D. montanus, car elles partagent le même nombre de base de chromosomes. Elles sont isolées sur le plan reproducteur principalement par des barrières post-zygotiques, qui pourraient éventuellement être contournées via un nombre diploïde de gamètes[5].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante annuelle de 10 à 100 cm, les tiges érigées à décombantes, simples ou peu ramifiées, rétrohispides à glabrescentes. Les feuilles, de dimensions 3,5-12 × 2,5-5 cm, sont oblongues, les divisions terminales de 2-5 × c0,1 mm, linéaires, hispides ; les pétioles mesurent 3–12 cm.
 </t>
         </is>
       </c>
@@ -581,12 +596,88 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les pédoncules mesurent 4,5–5 cm, papillotés-hispides ; l'involucre des bractées nettement foliacées, est composé et penné, hispide ; les rayons de 4-20, l0,5-12 cm, sont vernis ; l'involucre de quelques bractées linéaires-hispides ; les pédicelles mesurent 3–20 mm. Les pétales sont blancs ou violacés. Les fruits, de dimensions 2-6 × 2-3 mm, sont oblongs, souvent violacés, la surface présentant des commissures avec deux rangées de poils hispides ; le carpophore (es) est entier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Daucus_montanus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daucus_montanus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Confusions possibles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les populations de Daucus pusillus sont étroitement liées à D. montanus, car elles partagent le même nombre de base de chromosomes. Elles sont isolées sur le plan reproducteur principalement par des barrières post-zygotiques, qui pourraient éventuellement être contournées via un nombre diploïde de gamètes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Daucus_montanus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daucus_montanus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a pour aire de répartition l'ouest de l'Amérique latine, du Mexique jusqu'en Argentine[2],[6]. Elle pousse sur pentes boisées et herbacées et habitats perturbés, entre 1 700 et 4 000 m[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a pour aire de répartition l'ouest de l'Amérique latine, du Mexique jusqu'en Argentine,. Elle pousse sur pentes boisées et herbacées et habitats perturbés, entre 1 700 et 4 000 m.
 </t>
         </is>
       </c>
